--- a/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\1D2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\María Elena\OneDrive\MASTER MUSE\2 CUATRI\POTENCIA\TRABAJOS GRUPO\Trabajos_GGE\Trabajo_3\1D2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794B115-D50F-4A0B-AF16-9B92CD6A8330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F558B1A-CFFA-4D6B-86B9-753089BC69DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analitico" sheetId="2" r:id="rId1"/>
     <sheet name="Numerico" sheetId="3" r:id="rId2"/>
+    <sheet name="C2" sheetId="4" r:id="rId3"/>
+    <sheet name="D2" sheetId="5" r:id="rId4"/>
+    <sheet name="E2" sheetId="6" r:id="rId5"/>
+    <sheet name="F2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>RTC France</t>
   </si>
@@ -74,6 +78,42 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>CTJ30</t>
+  </si>
+  <si>
+    <t>ATJ</t>
+  </si>
+  <si>
+    <t>4S1P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -129,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D6B83-7252-4B20-92AC-678F1DE6B30E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -453,7 +493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +513,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,7 +533,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -513,7 +553,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -533,7 +573,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +593,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -573,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -591,6 +631,86 @@
       </c>
       <c r="F8">
         <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7.59</v>
+      </c>
+      <c r="C9">
+        <v>2.55E-5</v>
+      </c>
+      <c r="D9">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C10">
+        <v>7.9900000000000005E-14</v>
+      </c>
+      <c r="D10">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E10">
+        <v>1480</v>
+      </c>
+      <c r="F10">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C11">
+        <v>8.960000000000001E-22</v>
+      </c>
+      <c r="D11">
+        <v>0.222</v>
+      </c>
+      <c r="E11">
+        <v>182</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>1.3299999999999999E-35</v>
+      </c>
+      <c r="D12">
+        <v>1.25</v>
+      </c>
+      <c r="E12">
+        <v>8470</v>
+      </c>
+      <c r="F12">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -600,15 +720,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8EF61A-2F73-4A60-80F3-D20CEB2B12B3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -628,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -636,79 +756,79 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="C2">
-        <v>3.27E-7</v>
+        <v>2.7500000000000001E-7</v>
       </c>
       <c r="D2">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E2">
-        <v>52.4</v>
+        <v>44.2</v>
       </c>
       <c r="F2">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.52500000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C3">
-        <v>3.6499999999999998E-15</v>
+        <v>3.1499999999999999E-15</v>
       </c>
       <c r="D3">
-        <v>5.5E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E3">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F3">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.46300000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C4">
-        <v>2.91E-15</v>
+        <v>1.28E-14</v>
       </c>
       <c r="D4">
-        <v>7.3999999999999996E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="E4">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="F4">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.52100000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C5">
-        <v>1.01E-17</v>
+        <v>2.5000000000000002E-18</v>
       </c>
       <c r="D5">
-        <v>7.9500000000000001E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>2680</v>
+        <v>3290</v>
       </c>
       <c r="F5">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -716,56 +836,300 @@
         <v>1.03</v>
       </c>
       <c r="C6">
-        <v>1.3E-6</v>
+        <v>1.73E-6</v>
       </c>
       <c r="D6">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="E6">
-        <v>3660</v>
+        <v>683</v>
       </c>
       <c r="F6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.24</v>
+        <v>8.19</v>
       </c>
       <c r="C7">
-        <v>4.1700000000000001E-10</v>
+        <v>8.6200000000000002E-10</v>
       </c>
       <c r="D7">
-        <v>0.33600000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E7">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.504</v>
+        <v>0.499</v>
       </c>
       <c r="C8">
-        <v>1.55E-14</v>
+        <v>4.5800000000000005E-16</v>
       </c>
       <c r="D8">
-        <v>2.29E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>9890</v>
+        <v>1610</v>
       </c>
       <c r="F8">
-        <v>1.1499999999999999</v>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7.68</v>
+      </c>
+      <c r="C9">
+        <v>3.4100000000000002E-5</v>
+      </c>
+      <c r="D9">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C10">
+        <v>3.0199999999999998E-13</v>
+      </c>
+      <c r="D10">
+        <v>4.87E-2</v>
+      </c>
+      <c r="E10">
+        <v>2480</v>
+      </c>
+      <c r="F10">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.434</v>
+      </c>
+      <c r="C11">
+        <v>7.8199999999999999E-21</v>
+      </c>
+      <c r="D11">
+        <v>0.186</v>
+      </c>
+      <c r="E11">
+        <v>237</v>
+      </c>
+      <c r="F11">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>3.3099999999999996E-37</v>
+      </c>
+      <c r="D12">
+        <v>1.24</v>
+      </c>
+      <c r="E12">
+        <v>17000</v>
+      </c>
+      <c r="F12">
+        <v>1.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61E410-6DF3-46C2-A1C0-B2657968C771}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960CD67-80AC-4967-A9F3-8A80AE87B3F0}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7DA198-32B8-416D-9980-AC9F8DAE40D0}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A909ADFA-C0AC-4E06-8FE0-604922556B5B}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\María Elena\OneDrive\MASTER MUSE\2 CUATRI\POTENCIA\TRABAJOS GRUPO\Trabajos_GGE\Trabajo_3\1D2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\1D2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F558B1A-CFFA-4D6B-86B9-753089BC69DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F4AEF3-6273-423E-85A8-D0ACB85CDFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analitico" sheetId="2" r:id="rId1"/>
     <sheet name="Numerico" sheetId="3" r:id="rId2"/>
-    <sheet name="C2" sheetId="4" r:id="rId3"/>
-    <sheet name="D2" sheetId="5" r:id="rId4"/>
-    <sheet name="E2" sheetId="6" r:id="rId5"/>
-    <sheet name="F2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>RTC France</t>
   </si>
@@ -90,30 +86,6 @@
   </si>
   <si>
     <t>4S1P</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
 </sst>
 </file>
@@ -169,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,12 +440,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -493,7 +465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +485,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -533,7 +505,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -553,7 +525,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,7 +545,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -593,7 +565,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -613,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -633,7 +605,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -653,7 +625,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -673,7 +645,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -693,7 +665,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -722,13 +694,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8EF61A-2F73-4A60-80F3-D20CEB2B12B3}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -748,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +740,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -788,7 +760,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -808,7 +780,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +800,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -848,7 +820,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -868,7 +840,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -888,7 +860,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -908,7 +880,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -928,7 +900,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -948,7 +920,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -966,170 +938,6 @@
       </c>
       <c r="F12">
         <v>1.29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61E410-6DF3-46C2-A1C0-B2657968C771}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960CD67-80AC-4967-A9F3-8A80AE87B3F0}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7DA198-32B8-416D-9980-AC9F8DAE40D0}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A909ADFA-C0AC-4E06-8FE0-604922556B5B}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\1D2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F4AEF3-6273-423E-85A8-D0ACB85CDFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D695F9-0026-48ED-B118-0CE2819859B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1656" yWindow="1536" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analitico" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>RTC France</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>4S1P</t>
+  </si>
+  <si>
+    <t>RMSE</t>
   </si>
 </sst>
 </file>
@@ -437,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D6B83-7252-4B20-92AC-678F1DE6B30E}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -464,8 +467,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +490,11 @@
       <c r="F2">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>9.9400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,8 +513,11 @@
       <c r="F3">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -524,8 +536,11 @@
       <c r="F4">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -544,8 +559,11 @@
       <c r="F5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -564,8 +582,11 @@
       <c r="F6">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -584,8 +605,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="F8">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -624,8 +651,11 @@
       <c r="F9">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -644,8 +674,11 @@
       <c r="F10">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -664,8 +697,11 @@
       <c r="F11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -683,6 +719,9 @@
       </c>
       <c r="F12">
         <v>1.35</v>
+      </c>
+      <c r="G12">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -692,15 +731,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8EF61A-2F73-4A60-80F3-D20CEB2B12B3}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -719,8 +758,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -739,8 +781,11 @@
       <c r="F2">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -759,8 +804,11 @@
       <c r="F3">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -779,8 +827,11 @@
       <c r="F4">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -799,8 +850,11 @@
       <c r="F5">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -819,8 +873,11 @@
       <c r="F6">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -839,8 +896,11 @@
       <c r="F7">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -859,8 +919,11 @@
       <c r="F8">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -879,8 +942,11 @@
       <c r="F9">
         <v>0.83899999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -899,8 +965,11 @@
       <c r="F10">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -919,8 +988,11 @@
       <c r="F11">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -938,6 +1010,9 @@
       </c>
       <c r="F12">
         <v>1.29</v>
+      </c>
+      <c r="G12">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/1D2R/Fit_model_1D2R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\1D2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D695F9-0026-48ED-B118-0CE2819859B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37856720-1F88-41C5-8030-53071A660E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="1536" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analitico" sheetId="2" r:id="rId1"/>
@@ -442,6 +442,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D6B83-7252-4B20-92AC-678F1DE6B30E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>3.2599999999999998E-7</v>
+      </c>
+      <c r="D2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>52.4</v>
+      </c>
+      <c r="F2">
+        <v>1.48</v>
+      </c>
+      <c r="G2">
+        <v>9.9400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C3">
+        <v>3.64E-15</v>
+      </c>
+      <c r="D3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E3">
+        <v>209</v>
+      </c>
+      <c r="F3">
+        <v>1.01</v>
+      </c>
+      <c r="G3">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="C4">
+        <v>2.91E-15</v>
+      </c>
+      <c r="D4">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="E4">
+        <v>273</v>
+      </c>
+      <c r="F4">
+        <v>1.07</v>
+      </c>
+      <c r="G4">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.52</v>
+      </c>
+      <c r="C5">
+        <v>1.01E-17</v>
+      </c>
+      <c r="D5">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2680</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.03</v>
+      </c>
+      <c r="C6">
+        <v>1.3E-6</v>
+      </c>
+      <c r="D6">
+        <v>1.56</v>
+      </c>
+      <c r="E6">
+        <v>3660</v>
+      </c>
+      <c r="F6">
+        <v>1.25</v>
+      </c>
+      <c r="G6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8.23</v>
+      </c>
+      <c r="C7">
+        <v>4.1700000000000001E-10</v>
+      </c>
+      <c r="D7">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.503</v>
+      </c>
+      <c r="C8">
+        <v>1.55E-14</v>
+      </c>
+      <c r="D8">
+        <v>2.29E-2</v>
+      </c>
+      <c r="E8">
+        <v>9880</v>
+      </c>
+      <c r="F8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7.59</v>
+      </c>
+      <c r="C9">
+        <v>2.55E-5</v>
+      </c>
+      <c r="D9">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.82</v>
+      </c>
+      <c r="G9">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C10">
+        <v>7.9900000000000005E-14</v>
+      </c>
+      <c r="D10">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E10">
+        <v>1480</v>
+      </c>
+      <c r="F10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G10">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C11">
+        <v>8.960000000000001E-22</v>
+      </c>
+      <c r="D11">
+        <v>0.222</v>
+      </c>
+      <c r="E11">
+        <v>182</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>1.3299999999999999E-35</v>
+      </c>
+      <c r="D12">
+        <v>1.25</v>
+      </c>
+      <c r="E12">
+        <v>8470</v>
+      </c>
+      <c r="F12">
+        <v>1.35</v>
+      </c>
+      <c r="G12">
+        <v>1.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8EF61A-2F73-4A60-80F3-D20CEB2B12B3}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
@@ -476,22 +767,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.76100000000000001</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C2">
-        <v>3.2599999999999998E-7</v>
+        <v>2.7500000000000001E-7</v>
       </c>
       <c r="D2">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E2">
-        <v>52.4</v>
+        <v>44.2</v>
       </c>
       <c r="F2">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G2">
-        <v>9.9400000000000002E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -499,22 +790,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.52400000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C3">
-        <v>3.64E-15</v>
+        <v>3.1499999999999999E-15</v>
       </c>
       <c r="D3">
-        <v>5.5E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E3">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G3">
-        <v>5.42</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -522,22 +813,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.46300000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C4">
-        <v>2.91E-15</v>
+        <v>1.28E-14</v>
       </c>
       <c r="D4">
-        <v>7.3899999999999993E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="E4">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="F4">
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4">
-        <v>0.68600000000000005</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -545,22 +836,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.52</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C5">
-        <v>1.01E-17</v>
+        <v>2.5000000000000002E-18</v>
       </c>
       <c r="D5">
-        <v>7.9500000000000001E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>2680</v>
+        <v>3290</v>
       </c>
       <c r="F5">
-        <v>0.9</v>
+        <v>0.872</v>
       </c>
       <c r="G5">
-        <v>2.52</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -571,19 +862,19 @@
         <v>1.03</v>
       </c>
       <c r="C6">
-        <v>1.3E-6</v>
+        <v>1.73E-6</v>
       </c>
       <c r="D6">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="E6">
-        <v>3660</v>
+        <v>683</v>
       </c>
       <c r="F6">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="G6">
-        <v>1.22</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -591,22 +882,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.23</v>
+        <v>8.19</v>
       </c>
       <c r="C7">
-        <v>4.1700000000000001E-10</v>
+        <v>8.6200000000000002E-10</v>
       </c>
       <c r="D7">
-        <v>0.33600000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E7">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="G7">
-        <v>3.85</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -614,22 +905,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.503</v>
+        <v>0.499</v>
       </c>
       <c r="C8">
-        <v>1.55E-14</v>
+        <v>4.5800000000000005E-16</v>
       </c>
       <c r="D8">
-        <v>2.29E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>9880</v>
+        <v>1610</v>
       </c>
       <c r="F8">
-        <v>1.1499999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="G8">
-        <v>1.94</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -637,22 +928,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>7.59</v>
+        <v>7.68</v>
       </c>
       <c r="C9">
-        <v>2.55E-5</v>
+        <v>3.4100000000000002E-5</v>
       </c>
       <c r="D9">
-        <v>9.7499999999999996E-4</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>0.19800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>0.82</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="G9">
-        <v>1.33</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -660,22 +951,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.47299999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C10">
-        <v>7.9900000000000005E-14</v>
+        <v>3.0199999999999998E-13</v>
       </c>
       <c r="D10">
-        <v>1.66E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E10">
-        <v>1480</v>
+        <v>2480</v>
       </c>
       <c r="F10">
-        <v>1.1499999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="G10">
-        <v>3.05</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -683,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.45500000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="C11">
-        <v>8.960000000000001E-22</v>
+        <v>7.8199999999999999E-21</v>
       </c>
       <c r="D11">
-        <v>0.222</v>
+        <v>0.186</v>
       </c>
       <c r="E11">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="G11">
-        <v>3.39</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -709,297 +1000,6 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="C12">
-        <v>1.3299999999999999E-35</v>
-      </c>
-      <c r="D12">
-        <v>1.25</v>
-      </c>
-      <c r="E12">
-        <v>8470</v>
-      </c>
-      <c r="F12">
-        <v>1.35</v>
-      </c>
-      <c r="G12">
-        <v>1.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8EF61A-2F73-4A60-80F3-D20CEB2B12B3}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C2">
-        <v>2.7500000000000001E-7</v>
-      </c>
-      <c r="D2">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E2">
-        <v>44.2</v>
-      </c>
-      <c r="F2">
-        <v>1.46</v>
-      </c>
-      <c r="G2">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="C3">
-        <v>3.1499999999999999E-15</v>
-      </c>
-      <c r="D3">
-        <v>0.111</v>
-      </c>
-      <c r="E3">
-        <v>205</v>
-      </c>
-      <c r="F3">
-        <v>1.02</v>
-      </c>
-      <c r="G3">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="C4">
-        <v>1.28E-14</v>
-      </c>
-      <c r="D4">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="E4">
-        <v>349</v>
-      </c>
-      <c r="F4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="C5">
-        <v>2.5000000000000002E-18</v>
-      </c>
-      <c r="D5">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="E5">
-        <v>3290</v>
-      </c>
-      <c r="F5">
-        <v>0.872</v>
-      </c>
-      <c r="G5">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.03</v>
-      </c>
-      <c r="C6">
-        <v>1.73E-6</v>
-      </c>
-      <c r="D6">
-        <v>1.31</v>
-      </c>
-      <c r="E6">
-        <v>683</v>
-      </c>
-      <c r="F6">
-        <v>1.28</v>
-      </c>
-      <c r="G6">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8.19</v>
-      </c>
-      <c r="C7">
-        <v>8.6200000000000002E-10</v>
-      </c>
-      <c r="D7">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E7">
-        <v>124</v>
-      </c>
-      <c r="F7">
-        <v>1.03</v>
-      </c>
-      <c r="G7">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.499</v>
-      </c>
-      <c r="C8">
-        <v>4.5800000000000005E-16</v>
-      </c>
-      <c r="D8">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>1610</v>
-      </c>
-      <c r="F8">
-        <v>1.03</v>
-      </c>
-      <c r="G8">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>7.68</v>
-      </c>
-      <c r="C9">
-        <v>3.4100000000000002E-5</v>
-      </c>
-      <c r="D9">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G9">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C10">
-        <v>3.0199999999999998E-13</v>
-      </c>
-      <c r="D10">
-        <v>4.87E-2</v>
-      </c>
-      <c r="E10">
-        <v>2480</v>
-      </c>
-      <c r="F10">
-        <v>1.21</v>
-      </c>
-      <c r="G10">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0.434</v>
-      </c>
-      <c r="C11">
-        <v>7.8199999999999999E-21</v>
-      </c>
-      <c r="D11">
-        <v>0.186</v>
-      </c>
-      <c r="E11">
-        <v>237</v>
-      </c>
-      <c r="F11">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C12">
         <v>3.3099999999999996E-37</v>
       </c>
       <c r="D12">
@@ -1012,7 +1012,7 @@
         <v>1.29</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>2.161</v>
       </c>
     </row>
   </sheetData>
